--- a/biology/Zoologie/Acanthodactylus/Acanthodactylus.xlsx
+++ b/biology/Zoologie/Acanthodactylus/Acanthodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus est un genre de sauriens de la famille des Lacertidae[1]. Ils sont appelés Acanthodactyles en français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus est un genre de sauriens de la famille des Lacertidae. Ils sont appelés Acanthodactyles en français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le nord de l'Afrique, au Moyen-Orient et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le nord de l'Afrique, au Moyen-Orient et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 juillet 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 juillet 2021) :
 Acanthodactylus aegyptius Baha El Din, 2007
 Acanthodactylus ahmaddisii Werner, 2004
 Acanthodactylus arabicus Boulenger, 1918
@@ -566,12 +582,12 @@
 Acanthodactylus haasi Leviton &amp; Anderson, 1967
 Acanthodactylus hardyi Haas, 1957
 Acanthodactylus harranensis Baran, Kumlutas, Lanza, Sindaco, Avci &amp; Crucitti, 2005
-Acanthodactylus ilgazi Kurnaz &amp; Şahin, 2021[4]
+Acanthodactylus ilgazi Kurnaz &amp; Şahin, 2021
 Acanthodactylus khamirensis Heidari, Rastegar-Pouyani, Rastegar-Pouyani &amp; Rajabizadeh, 2013
 Acanthodactylus lacrymae Miralles, Geniez, Beddek, Mendez-Aranda, Brito, Leblois &amp; Crochet, 2020
 Acanthodactylus longipes Boulenger, 1918 - Acanthodactyle à longs pieds
 Acanthodactylus maculatus (Gray, 1838) - Acanthodactyle tacheté
-Acanthodactylus margaritae Tamar, Geniez, Brito &amp; Crochey, 2017[5]
+Acanthodactylus margaritae Tamar, Geniez, Brito &amp; Crochey, 2017
 Acanthodactylus masirae Arnold, 1980
 Acanthodactylus micropholis Blanford, 1874
 Acanthodactylus montanus Miralles, Geniez, Beddek, Mendez-Aranda, Brito, Leblois &amp; Crochet, 2020
@@ -590,7 +606,7 @@
 Acanthodactylus tilburyi Arnold, 1986
 Acanthodactylus tristrami (Günther, 1864)
 Acanthodactylus yemenicus Salvador, 1982
-Acanthodactylus zagrosicus Mozaffari et al., 2021[6]</t>
+Acanthodactylus zagrosicus Mozaffari et al., 2021</t>
         </is>
       </c>
     </row>
@@ -618,9 +634,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Acanthodactylus, vient du grec ακανθα, « épine », et de δακτυλος, « doigt », soit « à doigts épineux » car ils présentent des franges d'épines sur le côté des doigts[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Acanthodactylus, vient du grec ακανθα, « épine », et de δακτυλος, « doigt », soit « à doigts épineux » car ils présentent des franges d'épines sur le côté des doigts.
 </t>
         </is>
       </c>
@@ -649,7 +667,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wiegmann, 1835 "1834" : Beiträge zur Zoologie gesammelt auf einer Reise um die Erde. Siebente Abhandlung. Amphibien. Nova Acta Physico-Medica, Academiae Caesarae Leopoldino-Carolinae, Halle, vol. 17, p. 185-268 (texte intégral).</t>
         </is>
